--- a/NewRTcamp.xlsx
+++ b/NewRTcamp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jayanti\Desktop\RTCamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>keyword</t>
   </si>
@@ -44,27 +38,15 @@
     <t>runmode</t>
   </si>
   <si>
-    <t>CreateLead01</t>
-  </si>
-  <si>
-    <t>verify the title</t>
-  </si>
-  <si>
     <t>verifytitle</t>
   </si>
   <si>
-    <t>no value</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>openbrowser</t>
   </si>
   <si>
-    <t>openbrowser the</t>
-  </si>
-  <si>
     <t>novalue</t>
   </si>
   <si>
@@ -80,53 +62,29 @@
     <t>enterusername</t>
   </si>
   <si>
-    <t xml:space="preserve"> Enter Username</t>
-  </si>
-  <si>
-    <t>enter password</t>
-  </si>
-  <si>
     <t>enterpassword</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>eclick on login</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>clickonlogin</t>
   </si>
   <si>
-    <t>clock on logout</t>
-  </si>
-  <si>
-    <t>clickonlogout</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>enter invalid uname</t>
-  </si>
-  <si>
-    <t>invalidusername</t>
-  </si>
-  <si>
-    <t>enter invalid password</t>
-  </si>
-  <si>
-    <t>invalidpassword</t>
+    <t>photoupload</t>
+  </si>
+  <si>
+    <t>upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +96,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,9 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,202 +415,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>